--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Curso A</t>
-  </si>
-  <si>
-    <t>Curso B</t>
-  </si>
-  <si>
-    <t>Curso C</t>
-  </si>
-  <si>
-    <t>Curso D</t>
-  </si>
-  <si>
-    <t>Curso E</t>
-  </si>
-  <si>
-    <t>Curso F</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,74 +420,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Curso A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Curso B</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Curso C</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Curso D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curso E</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Curso F</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>20.27997589111328</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>20.65173530578613</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>12.34298896789551</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>13.32876873016357</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>11.81088447570801</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>8.597244262695312</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>19.24794387817383</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>19.65406799316406</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>11.76547622680664</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>12.60589694976807</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>11.11594104766846</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>8.14693546295166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Curso A</t>
+  </si>
+  <si>
+    <t>Curso B</t>
+  </si>
+  <si>
+    <t>Curso C</t>
+  </si>
+  <si>
+    <t>Curso D</t>
+  </si>
+  <si>
+    <t>Curso E</t>
+  </si>
+  <si>
+    <t>Curso F</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,92 +388,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Curso A</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Curso B</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Curso C</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Curso D</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curso E</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Curso F</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>20.27997589111328</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>20.65173530578613</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>12.34298896789551</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>13.32876873016357</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>11.81088447570801</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8.597244262695312</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>19.24794387817383</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>19.65406799316406</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11.76547622680664</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12.60589694976807</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>11.11594104766846</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>8.14693546295166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -417,42 +417,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20.27997589111328</v>
+        <v>14.72677707672119</v>
       </c>
       <c r="B2">
-        <v>20.65173530578613</v>
+        <v>14.99785232543945</v>
       </c>
       <c r="C2">
-        <v>12.34298896789551</v>
+        <v>20.77395820617676</v>
       </c>
       <c r="D2">
-        <v>13.32876873016357</v>
+        <v>11.73354053497314</v>
       </c>
       <c r="E2">
-        <v>11.81088447570801</v>
+        <v>11.11271381378174</v>
       </c>
       <c r="F2">
-        <v>8.597244262695312</v>
+        <v>13.0965576171875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19.24794387817383</v>
+        <v>15.15277481079102</v>
       </c>
       <c r="B3">
-        <v>19.65406799316406</v>
+        <v>15.37021732330322</v>
       </c>
       <c r="C3">
-        <v>11.76547622680664</v>
+        <v>21.36320686340332</v>
       </c>
       <c r="D3">
-        <v>12.60589694976807</v>
+        <v>12.0574426651001</v>
       </c>
       <c r="E3">
-        <v>11.11594104766846</v>
+        <v>11.40393447875977</v>
       </c>
       <c r="F3">
-        <v>8.14693546295166</v>
+        <v>13.55037212371826</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ACADEMAI" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Curso A</t>
-  </si>
-  <si>
-    <t>Curso B</t>
-  </si>
-  <si>
-    <t>Curso C</t>
-  </si>
-  <si>
-    <t>Curso D</t>
-  </si>
-  <si>
-    <t>Curso E</t>
-  </si>
-  <si>
-    <t>Curso F</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,74 +420,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Curso A Predicted</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Curso B Predicted</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Curso C Predicted</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curso D Predicted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Curso E Predicted</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Curso F Predicted</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>14.72677707672119</v>
-      </c>
-      <c r="B2">
-        <v>14.99785232543945</v>
-      </c>
-      <c r="C2">
-        <v>20.77395820617676</v>
-      </c>
-      <c r="D2">
-        <v>11.73354053497314</v>
-      </c>
-      <c r="E2">
-        <v>11.11271381378174</v>
-      </c>
-      <c r="F2">
-        <v>13.0965576171875</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>15.15277481079102</v>
-      </c>
-      <c r="B3">
-        <v>15.37021732330322</v>
-      </c>
-      <c r="C3">
-        <v>21.36320686340332</v>
-      </c>
-      <c r="D3">
-        <v>12.0574426651001</v>
-      </c>
-      <c r="E3">
-        <v>11.40393447875977</v>
-      </c>
-      <c r="F3">
-        <v>13.55037212371826</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,48 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Alumno</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Curso A Predicted</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Curso B Predicted</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Curso C Predicted</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curso D Predicted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Curso E Predicted</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Curso F Predicted</t>
         </is>
       </c>
     </row>
@@ -485,24 +449,6 @@
           <t>Mark</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.51</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,24 +456,6 @@
           <t>Jose</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.11</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +448,36 @@
           <t>Alumno</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Curso A Predicted</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Curso B Predicted</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Curso C Predicted</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curso D Predicted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Curso E Predicted</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Curso F Predicted</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -449,12 +485,48 @@
           <t>Mark</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>Jose</t>
         </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.130000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +434,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -450,32 +447,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Curso A Predicted</t>
+          <t>Matematica Predicted</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Curso B Predicted</t>
+          <t>Comunicación Predicted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Curso C Predicted</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curso D Predicted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Curso E Predicted</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Curso F Predicted</t>
+          <t>Ingles Predicted</t>
         </is>
       </c>
     </row>
@@ -486,22 +468,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.95</v>
+        <v>14.37</v>
       </c>
       <c r="C2" t="n">
-        <v>14.95</v>
+        <v>12.98</v>
       </c>
       <c r="D2" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14.95</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="3">
@@ -511,22 +484,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.130000000000001</v>
+        <v>14.32</v>
       </c>
       <c r="C3" t="n">
-        <v>9.130000000000001</v>
+        <v>12.82</v>
       </c>
       <c r="D3" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.130000000000001</v>
+        <v>10.65</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.37</v>
+        <v>14.09</v>
       </c>
       <c r="C2" t="n">
-        <v>12.98</v>
+        <v>13.72</v>
       </c>
       <c r="D2" t="n">
-        <v>10.74</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.32</v>
+        <v>13.87</v>
       </c>
       <c r="C3" t="n">
-        <v>12.82</v>
+        <v>13.57</v>
       </c>
       <c r="D3" t="n">
-        <v>10.65</v>
+        <v>10.59</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="1" max="1"/>
+    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="39" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="46" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+    <col width="36" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,50 +455,898 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Matematica Predicted</t>
+          <t>DESARROLLO PERSONAL, CIUDADANÍA Y CÍVICA (A) Predicted</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Comunicación Predicted</t>
+          <t>CIENCIAS SOCIALES (B) Predicted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ingles Predicted</t>
+          <t>EDUCACIÓN PARA EL TRABAJO © Predicted</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN FÍSICA (D) Predicted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>COMUNICACIÓN € Predicted</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ARTE Y CULTURA (F) Predicted</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CASTELLANO COMO SEGUNDA LENGUA (G) Predicted</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>INGLÉS (H) Predicted</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MATEMÁTICA (I) Predicted</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CIENCIA Y TECNOLOGÍA (J) Predicted</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN RELIGIOSA (K) Predicted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>ALVARADO CACERES, Jhadee Luciana</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.09</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>13.72</v>
+        <v>14.48</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7</v>
+        <v>15.78</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>AYALA HUARCAYA, Dalila Jaely</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.87</v>
+        <v>12.23</v>
       </c>
       <c r="C3" t="n">
-        <v>13.57</v>
+        <v>12.59</v>
       </c>
       <c r="D3" t="n">
-        <v>10.59</v>
+        <v>12.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CABRERA ZEGARRA, Fabricio Alexander</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAMA LA MADRID, Tatiana Flor</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAMA PADILLA, Jean Claude Guillermo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CHAMORRO CRUZ, Kiara Sofia</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CHUCO CHAMORRO, Anthony Luis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CHUMPITAZ ARIAS, Moises Alejandro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CHUMPITAZ CALAGUA, Rosmery Elina</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="L10" t="n">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CHUMPITAZ LAZARO, Dustyn Jagers</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="L11" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CORDOVA LEVANO, Diana Sofia</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FERRARI SANCHEZ, Luzdary Belen</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FLORIAN SOTO, Shelsie Bryana</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FRANCIA FLORES, Emmanuel Jireth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MORAN AGUILAR, Jerico Joao</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ORMEÑO CAMPOS, Naomi Guadalupe</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PESANTES FRANCIA, Yasmin Loreley</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PINTO ROSAS, Marcel Paolo</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RAFFO SANCHEZ, Jimena Jarumy</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RAMOS CACERES, Luciana Renata</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RUFASTO ARIAS, Damaris Samara Elizabeth</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>12.05</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,11 +440,10 @@
     <col width="32" customWidth="1" min="5" max="5"/>
     <col width="26" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="46" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="26" customWidth="1" min="10" max="10"/>
-    <col width="36" customWidth="1" min="11" max="11"/>
-    <col width="35" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,27 +484,22 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CASTELLANO COMO SEGUNDA LENGUA (G) Predicted</t>
+          <t>INGLÉS (G) Predicted</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>INGLÉS (H) Predicted</t>
+          <t>MATEMÁTICA (H) Predicted</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MATEMÁTICA (I) Predicted</t>
+          <t>CIENCIA Y TECNOLOGÍA (I) Predicted</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CIENCIA Y TECNOLOGÍA (J) Predicted</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>EDUCACIÓN RELIGIOSA (K) Predicted</t>
+          <t>EDUCACIÓN RELIGIOSA (J) Predicted</t>
         </is>
       </c>
     </row>
@@ -516,37 +510,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>15.13</v>
       </c>
       <c r="C2" t="n">
-        <v>14.48</v>
+        <v>13.87</v>
       </c>
       <c r="D2" t="n">
-        <v>15.78</v>
+        <v>13.08</v>
       </c>
       <c r="E2" t="n">
-        <v>15.64</v>
+        <v>16.28</v>
       </c>
       <c r="F2" t="n">
-        <v>15.46</v>
+        <v>16.55</v>
       </c>
       <c r="G2" t="n">
-        <v>15.38</v>
+        <v>16.4</v>
       </c>
       <c r="H2" t="n">
-        <v>14.52</v>
+        <v>15.99</v>
       </c>
       <c r="I2" t="n">
-        <v>14.39</v>
+        <v>13.29</v>
       </c>
       <c r="J2" t="n">
-        <v>14.46</v>
+        <v>16.13</v>
       </c>
       <c r="K2" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>14.44</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="3">
@@ -556,37 +547,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.23</v>
+        <v>12.61</v>
       </c>
       <c r="C3" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="G3" t="n">
         <v>12.59</v>
       </c>
-      <c r="D3" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12.36</v>
-      </c>
       <c r="H3" t="n">
-        <v>12.41</v>
+        <v>12.74</v>
       </c>
       <c r="I3" t="n">
-        <v>12.38</v>
+        <v>12.3</v>
       </c>
       <c r="J3" t="n">
-        <v>12.35</v>
+        <v>13.61</v>
       </c>
       <c r="K3" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12.39</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="4">
@@ -596,37 +584,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8</v>
+        <v>17.24</v>
       </c>
       <c r="C4" t="n">
-        <v>16.76</v>
+        <v>16.51</v>
       </c>
       <c r="D4" t="n">
-        <v>17.11</v>
+        <v>16.59</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="F4" t="n">
-        <v>16.91</v>
+        <v>17.2</v>
       </c>
       <c r="G4" t="n">
-        <v>16.81</v>
+        <v>17.03</v>
       </c>
       <c r="H4" t="n">
-        <v>16.87</v>
+        <v>17.15</v>
       </c>
       <c r="I4" t="n">
-        <v>16.7</v>
+        <v>16.63</v>
       </c>
       <c r="J4" t="n">
-        <v>16.59</v>
+        <v>17.46</v>
       </c>
       <c r="K4" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16.4</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="5">
@@ -636,37 +621,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.01</v>
+        <v>12.32</v>
       </c>
       <c r="C5" t="n">
-        <v>12.22</v>
+        <v>13.03</v>
       </c>
       <c r="D5" t="n">
-        <v>11.92</v>
+        <v>12.3</v>
       </c>
       <c r="E5" t="n">
-        <v>11.91</v>
+        <v>12.43</v>
       </c>
       <c r="F5" t="n">
-        <v>12.06</v>
+        <v>12.4</v>
       </c>
       <c r="G5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K5" t="n">
         <v>12.15</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12.1</v>
       </c>
     </row>
     <row r="6">
@@ -676,37 +658,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.96</v>
+        <v>14.7</v>
       </c>
       <c r="C6" t="n">
-        <v>14.08</v>
+        <v>14.02</v>
       </c>
       <c r="D6" t="n">
-        <v>13.84</v>
+        <v>13.51</v>
       </c>
       <c r="E6" t="n">
-        <v>13.82</v>
+        <v>14.42</v>
       </c>
       <c r="F6" t="n">
-        <v>13.9</v>
+        <v>14.83</v>
       </c>
       <c r="G6" t="n">
-        <v>13.88</v>
+        <v>15.3</v>
       </c>
       <c r="H6" t="n">
-        <v>13.76</v>
+        <v>14.63</v>
       </c>
       <c r="I6" t="n">
-        <v>13.73</v>
+        <v>14.46</v>
       </c>
       <c r="J6" t="n">
-        <v>13.97</v>
+        <v>14.8</v>
       </c>
       <c r="K6" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>14.12</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="7">
@@ -716,37 +695,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.55</v>
+        <v>13.22</v>
       </c>
       <c r="C7" t="n">
-        <v>12.75</v>
+        <v>13.86</v>
       </c>
       <c r="D7" t="n">
-        <v>13.08</v>
+        <v>12.98</v>
       </c>
       <c r="E7" t="n">
-        <v>13.07</v>
+        <v>13.4</v>
       </c>
       <c r="F7" t="n">
-        <v>12.97</v>
+        <v>13.18</v>
       </c>
       <c r="G7" t="n">
-        <v>13.03</v>
+        <v>13.09</v>
       </c>
       <c r="H7" t="n">
-        <v>12.47</v>
+        <v>13.31</v>
       </c>
       <c r="I7" t="n">
-        <v>12.46</v>
+        <v>12.39</v>
       </c>
       <c r="J7" t="n">
-        <v>12.27</v>
+        <v>14.23</v>
       </c>
       <c r="K7" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>12.09</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="8">
@@ -756,37 +732,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.91</v>
+        <v>17.85</v>
       </c>
       <c r="C8" t="n">
-        <v>16.39</v>
+        <v>16.37</v>
       </c>
       <c r="D8" t="n">
-        <v>17.48</v>
+        <v>17.7</v>
       </c>
       <c r="E8" t="n">
-        <v>17.36</v>
+        <v>17.46</v>
       </c>
       <c r="F8" t="n">
-        <v>17.26</v>
+        <v>17.35</v>
       </c>
       <c r="G8" t="n">
-        <v>17.11</v>
+        <v>17.17</v>
       </c>
       <c r="H8" t="n">
-        <v>16.8</v>
+        <v>17.38</v>
       </c>
       <c r="I8" t="n">
-        <v>16.72</v>
+        <v>17.07</v>
       </c>
       <c r="J8" t="n">
-        <v>16.67</v>
+        <v>17.4</v>
       </c>
       <c r="K8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>16.49</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="9">
@@ -796,37 +769,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.57</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>11.35</v>
+        <v>11.06</v>
       </c>
       <c r="D9" t="n">
-        <v>9.51</v>
+        <v>9.52</v>
       </c>
       <c r="E9" t="n">
-        <v>9.890000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>10.32</v>
+        <v>9.66</v>
       </c>
       <c r="G9" t="n">
-        <v>10.75</v>
+        <v>9.59</v>
       </c>
       <c r="H9" t="n">
-        <v>10.1</v>
+        <v>9.93</v>
       </c>
       <c r="I9" t="n">
-        <v>10.15</v>
+        <v>9.65</v>
       </c>
       <c r="J9" t="n">
-        <v>10.38</v>
+        <v>10.93</v>
       </c>
       <c r="K9" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11.11</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +806,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.69</v>
+        <v>18.01</v>
       </c>
       <c r="C10" t="n">
-        <v>17.49</v>
+        <v>17.43</v>
       </c>
       <c r="D10" t="n">
-        <v>18.15</v>
+        <v>17.2</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17.52</v>
       </c>
       <c r="F10" t="n">
-        <v>17.85</v>
+        <v>17.4</v>
       </c>
       <c r="G10" t="n">
-        <v>17.74</v>
+        <v>17.2</v>
       </c>
       <c r="H10" t="n">
-        <v>17.83</v>
+        <v>17.53</v>
       </c>
       <c r="I10" t="n">
-        <v>17.68</v>
+        <v>16.95</v>
       </c>
       <c r="J10" t="n">
-        <v>17.58</v>
+        <v>17.94</v>
       </c>
       <c r="K10" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="L10" t="n">
-        <v>17.34</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="11">
@@ -876,37 +843,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.6</v>
+        <v>16.57</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7</v>
+        <v>16.15</v>
       </c>
       <c r="D11" t="n">
-        <v>16.76</v>
+        <v>16.73</v>
       </c>
       <c r="E11" t="n">
-        <v>16.62</v>
+        <v>17.47</v>
       </c>
       <c r="F11" t="n">
-        <v>16.57</v>
+        <v>17.12</v>
       </c>
       <c r="G11" t="n">
-        <v>16.48</v>
+        <v>16.9</v>
       </c>
       <c r="H11" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="K11" t="n">
         <v>16.55</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="K11" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="L11" t="n">
-        <v>16.25</v>
       </c>
     </row>
     <row r="12">
@@ -916,37 +880,34 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="I12" t="n">
         <v>12.08</v>
       </c>
-      <c r="C12" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.71</v>
-      </c>
       <c r="J12" t="n">
-        <v>11.81</v>
+        <v>13.89</v>
       </c>
       <c r="K12" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.95</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="13">
@@ -956,37 +917,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.89</v>
+        <v>12.02</v>
       </c>
       <c r="C13" t="n">
-        <v>12.07</v>
+        <v>12.37</v>
       </c>
       <c r="D13" t="n">
-        <v>11.66</v>
+        <v>12.16</v>
       </c>
       <c r="E13" t="n">
-        <v>11.72</v>
+        <v>12.22</v>
       </c>
       <c r="F13" t="n">
-        <v>11.86</v>
+        <v>12.18</v>
       </c>
       <c r="G13" t="n">
-        <v>12.03</v>
+        <v>11.99</v>
       </c>
       <c r="H13" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="I13" t="n">
-        <v>11.9</v>
+        <v>11.67</v>
       </c>
       <c r="J13" t="n">
-        <v>11.95</v>
+        <v>12.76</v>
       </c>
       <c r="K13" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12.1</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="14">
@@ -996,37 +954,34 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="C14" t="n">
         <v>15.52</v>
       </c>
-      <c r="C14" t="n">
-        <v>15.27</v>
-      </c>
       <c r="D14" t="n">
-        <v>16.38</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="I14" t="n">
         <v>16.31</v>
       </c>
-      <c r="F14" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15</v>
-      </c>
       <c r="J14" t="n">
-        <v>14.95</v>
+        <v>16.27</v>
       </c>
       <c r="K14" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="L14" t="n">
-        <v>14.96</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="15">
@@ -1036,37 +991,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.2</v>
+        <v>12.33</v>
       </c>
       <c r="C15" t="n">
-        <v>12.4</v>
+        <v>13.01</v>
       </c>
       <c r="D15" t="n">
-        <v>11.49</v>
+        <v>12.1</v>
       </c>
       <c r="E15" t="n">
-        <v>11.55</v>
+        <v>12.24</v>
       </c>
       <c r="F15" t="n">
-        <v>11.75</v>
+        <v>12.24</v>
       </c>
       <c r="G15" t="n">
-        <v>11.99</v>
+        <v>12.15</v>
       </c>
       <c r="H15" t="n">
-        <v>12.15</v>
+        <v>12.24</v>
       </c>
       <c r="I15" t="n">
-        <v>12.11</v>
+        <v>11.83</v>
       </c>
       <c r="J15" t="n">
-        <v>12.16</v>
+        <v>13.12</v>
       </c>
       <c r="K15" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.36</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="16">
@@ -1076,37 +1028,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.47</v>
+        <v>16.42</v>
       </c>
       <c r="C16" t="n">
-        <v>16.01</v>
+        <v>15.52</v>
       </c>
       <c r="D16" t="n">
-        <v>17.14</v>
+        <v>15.68</v>
       </c>
       <c r="E16" t="n">
-        <v>17.07</v>
+        <v>17.01</v>
       </c>
       <c r="F16" t="n">
-        <v>16.99</v>
+        <v>17.12</v>
       </c>
       <c r="G16" t="n">
-        <v>16.92</v>
+        <v>16.96</v>
       </c>
       <c r="H16" t="n">
-        <v>16.32</v>
+        <v>16.75</v>
       </c>
       <c r="I16" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="K16" t="n">
         <v>16.12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="L16" t="n">
-        <v>16.02</v>
       </c>
     </row>
     <row r="17">
@@ -1116,37 +1065,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.27</v>
+        <v>12.28</v>
       </c>
       <c r="C17" t="n">
-        <v>12.45</v>
+        <v>13.16</v>
       </c>
       <c r="D17" t="n">
-        <v>11.62</v>
+        <v>11.55</v>
       </c>
       <c r="E17" t="n">
-        <v>11.74</v>
+        <v>11.56</v>
       </c>
       <c r="F17" t="n">
-        <v>11.93</v>
+        <v>11.71</v>
       </c>
       <c r="G17" t="n">
-        <v>12.21</v>
+        <v>11.82</v>
       </c>
       <c r="H17" t="n">
-        <v>12.3</v>
+        <v>12.24</v>
       </c>
       <c r="I17" t="n">
-        <v>12.27</v>
+        <v>11.73</v>
       </c>
       <c r="J17" t="n">
-        <v>12.3</v>
+        <v>13.06</v>
       </c>
       <c r="K17" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.46</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="18">
@@ -1156,37 +1102,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.19</v>
+        <v>16.86</v>
       </c>
       <c r="C18" t="n">
-        <v>16.69</v>
+        <v>16.47</v>
       </c>
       <c r="D18" t="n">
-        <v>16.42</v>
+        <v>16.18</v>
       </c>
       <c r="E18" t="n">
-        <v>16.31</v>
+        <v>17.18</v>
       </c>
       <c r="F18" t="n">
-        <v>16.18</v>
+        <v>17.06</v>
       </c>
       <c r="G18" t="n">
-        <v>16.1</v>
+        <v>17.04</v>
       </c>
       <c r="H18" t="n">
-        <v>15.85</v>
+        <v>17.11</v>
       </c>
       <c r="I18" t="n">
-        <v>15.6</v>
+        <v>17.02</v>
       </c>
       <c r="J18" t="n">
-        <v>15.51</v>
+        <v>17.35</v>
       </c>
       <c r="K18" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15.47</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="19">
@@ -1196,37 +1139,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.11</v>
+        <v>17.98</v>
       </c>
       <c r="C19" t="n">
-        <v>17.97</v>
+        <v>17.69</v>
       </c>
       <c r="D19" t="n">
-        <v>18.67</v>
+        <v>17.63</v>
       </c>
       <c r="E19" t="n">
-        <v>18.49</v>
+        <v>17.63</v>
       </c>
       <c r="F19" t="n">
-        <v>18.31</v>
+        <v>17.46</v>
       </c>
       <c r="G19" t="n">
-        <v>18.17</v>
+        <v>17.27</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39</v>
+        <v>17.67</v>
       </c>
       <c r="I19" t="n">
-        <v>18.25</v>
+        <v>17.05</v>
       </c>
       <c r="J19" t="n">
-        <v>18.11</v>
+        <v>17.96</v>
       </c>
       <c r="K19" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="L19" t="n">
-        <v>17.84</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="20">
@@ -1236,37 +1176,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.52</v>
+        <v>12.99</v>
       </c>
       <c r="C20" t="n">
-        <v>12.84</v>
+        <v>12.97</v>
       </c>
       <c r="D20" t="n">
-        <v>12.97</v>
+        <v>12.94</v>
       </c>
       <c r="E20" t="n">
-        <v>12.95</v>
+        <v>13.18</v>
       </c>
       <c r="F20" t="n">
-        <v>12.87</v>
+        <v>13.1</v>
       </c>
       <c r="G20" t="n">
-        <v>12.94</v>
+        <v>13.22</v>
       </c>
       <c r="H20" t="n">
-        <v>12.35</v>
+        <v>13.43</v>
       </c>
       <c r="I20" t="n">
-        <v>12.33</v>
+        <v>12.31</v>
       </c>
       <c r="J20" t="n">
-        <v>12.25</v>
+        <v>13.57</v>
       </c>
       <c r="K20" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12.25</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="21">
@@ -1276,37 +1213,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.64</v>
+        <v>15.24</v>
       </c>
       <c r="C21" t="n">
-        <v>15.24</v>
+        <v>15.49</v>
       </c>
       <c r="D21" t="n">
-        <v>14.09</v>
+        <v>13.94</v>
       </c>
       <c r="E21" t="n">
-        <v>13.98</v>
+        <v>15.32</v>
       </c>
       <c r="F21" t="n">
-        <v>14.06</v>
+        <v>15.71</v>
       </c>
       <c r="G21" t="n">
-        <v>14.29</v>
+        <v>16.01</v>
       </c>
       <c r="H21" t="n">
-        <v>14.58</v>
+        <v>15.68</v>
       </c>
       <c r="I21" t="n">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="J21" t="n">
-        <v>14.43</v>
+        <v>15.86</v>
       </c>
       <c r="K21" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="L21" t="n">
-        <v>14.66</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="22">
@@ -1316,37 +1250,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.91</v>
+        <v>12.43</v>
       </c>
       <c r="C22" t="n">
-        <v>12.03</v>
+        <v>13.16</v>
       </c>
       <c r="D22" t="n">
-        <v>11.82</v>
+        <v>12.48</v>
       </c>
       <c r="E22" t="n">
-        <v>11.84</v>
+        <v>12.53</v>
       </c>
       <c r="F22" t="n">
-        <v>11.92</v>
+        <v>12.49</v>
       </c>
       <c r="G22" t="n">
-        <v>12.05</v>
+        <v>12.42</v>
       </c>
       <c r="H22" t="n">
-        <v>12.03</v>
+        <v>12.48</v>
       </c>
       <c r="I22" t="n">
-        <v>12.01</v>
+        <v>12.08</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>13.28</v>
       </c>
       <c r="K22" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12.05</v>
+        <v>12.19</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.09</v>
+        <v>13.56</v>
       </c>
       <c r="C2" t="n">
-        <v>13.72</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.87</v>
+        <v>13.61</v>
       </c>
       <c r="C3" t="n">
-        <v>13.57</v>
+        <v>13.82</v>
       </c>
       <c r="D3" t="n">
-        <v>10.59</v>
+        <v>10.66</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -504,31 +504,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.96</v>
+        <v>13.91</v>
       </c>
       <c r="C2" t="n">
-        <v>14.46</v>
+        <v>14.48</v>
       </c>
       <c r="D2" t="n">
-        <v>14.91</v>
+        <v>14.9</v>
       </c>
       <c r="E2" t="n">
         <v>15.96</v>
       </c>
       <c r="F2" t="n">
-        <v>15.29</v>
+        <v>15.39</v>
       </c>
       <c r="G2" t="n">
-        <v>15.2</v>
+        <v>15.24</v>
       </c>
       <c r="H2" t="n">
-        <v>14.09</v>
+        <v>14.04</v>
       </c>
       <c r="I2" t="n">
-        <v>12.98</v>
+        <v>13.06</v>
       </c>
       <c r="J2" t="n">
-        <v>15.58</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="3">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.22</v>
+        <v>12.28</v>
       </c>
       <c r="C3" t="n">
-        <v>13.74</v>
+        <v>13.77</v>
       </c>
       <c r="D3" t="n">
         <v>11.61</v>
@@ -550,19 +550,19 @@
         <v>12.39</v>
       </c>
       <c r="F3" t="n">
-        <v>12.63</v>
+        <v>12.64</v>
       </c>
       <c r="G3" t="n">
-        <v>11.91</v>
+        <v>11.85</v>
       </c>
       <c r="H3" t="n">
-        <v>13.91</v>
+        <v>13.98</v>
       </c>
       <c r="I3" t="n">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
       <c r="J3" t="n">
-        <v>13.35</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="4">
@@ -572,31 +572,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.06</v>
+        <v>16.02</v>
       </c>
       <c r="C4" t="n">
-        <v>15.99</v>
+        <v>16.07</v>
       </c>
       <c r="D4" t="n">
-        <v>16.14</v>
+        <v>16.19</v>
       </c>
       <c r="E4" t="n">
         <v>17.59</v>
       </c>
       <c r="F4" t="n">
-        <v>17.07</v>
+        <v>17.04</v>
       </c>
       <c r="G4" t="n">
-        <v>16.47</v>
+        <v>16.52</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>17.01</v>
       </c>
       <c r="I4" t="n">
-        <v>13.7</v>
+        <v>13.72</v>
       </c>
       <c r="J4" t="n">
-        <v>17.32</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="5">
@@ -609,28 +609,28 @@
         <v>11.84</v>
       </c>
       <c r="C5" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="D5" t="n">
-        <v>11.74</v>
+        <v>11.72</v>
       </c>
       <c r="E5" t="n">
         <v>12.22</v>
       </c>
       <c r="F5" t="n">
-        <v>12.56</v>
+        <v>12.43</v>
       </c>
       <c r="G5" t="n">
-        <v>12.82</v>
+        <v>12.81</v>
       </c>
       <c r="H5" t="n">
-        <v>12.7</v>
+        <v>12.76</v>
       </c>
       <c r="I5" t="n">
-        <v>9.77</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>12.85</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="6">
@@ -640,31 +640,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.96</v>
+        <v>13.98</v>
       </c>
       <c r="C6" t="n">
-        <v>14.61</v>
+        <v>14.62</v>
       </c>
       <c r="D6" t="n">
-        <v>13.61</v>
+        <v>13.55</v>
       </c>
       <c r="E6" t="n">
         <v>14.49</v>
       </c>
       <c r="F6" t="n">
-        <v>14.35</v>
+        <v>14.41</v>
       </c>
       <c r="G6" t="n">
-        <v>14.22</v>
+        <v>14.14</v>
       </c>
       <c r="H6" t="n">
         <v>14.17</v>
       </c>
       <c r="I6" t="n">
-        <v>12.68</v>
+        <v>12.62</v>
       </c>
       <c r="J6" t="n">
-        <v>14.39</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="7">
@@ -674,28 +674,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.13</v>
+        <v>12.1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.97</v>
+        <v>13.03</v>
       </c>
       <c r="D7" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="E7" t="n">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="F7" t="n">
-        <v>12.92</v>
+        <v>13.05</v>
       </c>
       <c r="G7" t="n">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="H7" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="I7" t="n">
-        <v>10.33</v>
+        <v>10.34</v>
       </c>
       <c r="J7" t="n">
         <v>13.27</v>
@@ -708,31 +708,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.52</v>
+        <v>16.45</v>
       </c>
       <c r="C8" t="n">
-        <v>14.94</v>
+        <v>15.05</v>
       </c>
       <c r="D8" t="n">
-        <v>17.33</v>
+        <v>17.4</v>
       </c>
       <c r="E8" t="n">
         <v>16.73</v>
       </c>
       <c r="F8" t="n">
-        <v>17.92</v>
+        <v>17.91</v>
       </c>
       <c r="G8" t="n">
-        <v>16.06</v>
+        <v>16.08</v>
       </c>
       <c r="H8" t="n">
-        <v>16.71</v>
+        <v>16.73</v>
       </c>
       <c r="I8" t="n">
-        <v>14.99</v>
+        <v>15.07</v>
       </c>
       <c r="J8" t="n">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="9">
@@ -742,31 +742,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>10.28</v>
+        <v>10.23</v>
       </c>
       <c r="D9" t="n">
-        <v>8.58</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>10.11</v>
+        <v>10.08</v>
       </c>
       <c r="F9" t="n">
-        <v>9.390000000000001</v>
+        <v>9.27</v>
       </c>
       <c r="G9" t="n">
-        <v>10.24</v>
+        <v>10.1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.279999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="I9" t="n">
-        <v>8.51</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>10.67</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="10">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.65</v>
+        <v>16.55</v>
       </c>
       <c r="C10" t="n">
-        <v>17.33</v>
+        <v>17.37</v>
       </c>
       <c r="D10" t="n">
-        <v>17.34</v>
+        <v>17.45</v>
       </c>
       <c r="E10" t="n">
         <v>18.4</v>
       </c>
       <c r="F10" t="n">
-        <v>18.37</v>
+        <v>18.32</v>
       </c>
       <c r="G10" t="n">
-        <v>17.75</v>
+        <v>17.78</v>
       </c>
       <c r="H10" t="n">
-        <v>18.28</v>
+        <v>18.33</v>
       </c>
       <c r="I10" t="n">
-        <v>15.65</v>
+        <v>15.6</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="11">
@@ -813,28 +813,28 @@
         <v>15.77</v>
       </c>
       <c r="C11" t="n">
-        <v>16.36</v>
+        <v>16.43</v>
       </c>
       <c r="D11" t="n">
-        <v>16.2</v>
+        <v>16.25</v>
       </c>
       <c r="E11" t="n">
         <v>16.58</v>
       </c>
       <c r="F11" t="n">
-        <v>16.16</v>
+        <v>15.99</v>
       </c>
       <c r="G11" t="n">
-        <v>15.87</v>
+        <v>15.89</v>
       </c>
       <c r="H11" t="n">
-        <v>15.54</v>
+        <v>15.58</v>
       </c>
       <c r="I11" t="n">
-        <v>13.55</v>
+        <v>13.66</v>
       </c>
       <c r="J11" t="n">
-        <v>16.32</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="12">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="C12" t="n">
-        <v>12.28</v>
+        <v>12.31</v>
       </c>
       <c r="D12" t="n">
         <v>12.38</v>
@@ -856,19 +856,19 @@
         <v>12.51</v>
       </c>
       <c r="F12" t="n">
-        <v>12.61</v>
+        <v>12.67</v>
       </c>
       <c r="G12" t="n">
-        <v>13.78</v>
+        <v>13.77</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32</v>
+        <v>12.38</v>
       </c>
       <c r="I12" t="n">
-        <v>10.42</v>
+        <v>10.35</v>
       </c>
       <c r="J12" t="n">
-        <v>13.38</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="13">
@@ -881,28 +881,28 @@
         <v>11.45</v>
       </c>
       <c r="C13" t="n">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="D13" t="n">
-        <v>11.8</v>
+        <v>11.82</v>
       </c>
       <c r="E13" t="n">
-        <v>11.77</v>
+        <v>11.74</v>
       </c>
       <c r="F13" t="n">
-        <v>12.19</v>
+        <v>12.17</v>
       </c>
       <c r="G13" t="n">
-        <v>11.46</v>
+        <v>11.31</v>
       </c>
       <c r="H13" t="n">
-        <v>11.08</v>
+        <v>11.17</v>
       </c>
       <c r="I13" t="n">
-        <v>10.34</v>
+        <v>10.32</v>
       </c>
       <c r="J13" t="n">
-        <v>12.29</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="14">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.98</v>
+        <v>14.97</v>
       </c>
       <c r="C14" t="n">
-        <v>14.49</v>
+        <v>14.5</v>
       </c>
       <c r="D14" t="n">
-        <v>14.93</v>
+        <v>14.92</v>
       </c>
       <c r="E14" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="F14" t="n">
         <v>15.94</v>
       </c>
-      <c r="F14" t="n">
-        <v>15.88</v>
-      </c>
       <c r="G14" t="n">
-        <v>14.77</v>
+        <v>14.81</v>
       </c>
       <c r="H14" t="n">
         <v>15.16</v>
       </c>
       <c r="I14" t="n">
-        <v>13.65</v>
+        <v>13.82</v>
       </c>
       <c r="J14" t="n">
-        <v>16.04</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="15">
@@ -946,31 +946,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.27</v>
+        <v>11.26</v>
       </c>
       <c r="C15" t="n">
         <v>12.08</v>
       </c>
       <c r="D15" t="n">
-        <v>11.81</v>
+        <v>11.86</v>
       </c>
       <c r="E15" t="n">
-        <v>11.75</v>
+        <v>11.73</v>
       </c>
       <c r="F15" t="n">
-        <v>12.47</v>
+        <v>12.41</v>
       </c>
       <c r="G15" t="n">
-        <v>12.32</v>
+        <v>12.26</v>
       </c>
       <c r="H15" t="n">
-        <v>11.37</v>
+        <v>11.46</v>
       </c>
       <c r="I15" t="n">
-        <v>10.05</v>
+        <v>10.03</v>
       </c>
       <c r="J15" t="n">
-        <v>12.32</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="16">
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.88</v>
+        <v>15.81</v>
       </c>
       <c r="C16" t="n">
-        <v>14.44</v>
+        <v>14.45</v>
       </c>
       <c r="D16" t="n">
-        <v>16.57</v>
+        <v>16.62</v>
       </c>
       <c r="E16" t="n">
-        <v>16.61</v>
+        <v>16.6</v>
       </c>
       <c r="F16" t="n">
-        <v>17.22</v>
+        <v>17.24</v>
       </c>
       <c r="G16" t="n">
-        <v>15.76</v>
+        <v>15.72</v>
       </c>
       <c r="H16" t="n">
-        <v>15.49</v>
+        <v>15.54</v>
       </c>
       <c r="I16" t="n">
-        <v>14.55</v>
+        <v>14.59</v>
       </c>
       <c r="J16" t="n">
-        <v>15.99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1014,31 +1014,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.06</v>
+        <v>11.04</v>
       </c>
       <c r="C17" t="n">
-        <v>13.73</v>
+        <v>13.72</v>
       </c>
       <c r="D17" t="n">
-        <v>11.37</v>
+        <v>11.41</v>
       </c>
       <c r="E17" t="n">
-        <v>10.84</v>
+        <v>10.81</v>
       </c>
       <c r="F17" t="n">
-        <v>12.19</v>
+        <v>12.17</v>
       </c>
       <c r="G17" t="n">
-        <v>12.53</v>
+        <v>12.49</v>
       </c>
       <c r="H17" t="n">
-        <v>12.03</v>
+        <v>12.14</v>
       </c>
       <c r="I17" t="n">
-        <v>10.92</v>
+        <v>10.87</v>
       </c>
       <c r="J17" t="n">
-        <v>12.8</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="18">
@@ -1048,31 +1048,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.7</v>
+        <v>15.67</v>
       </c>
       <c r="C18" t="n">
         <v>16.22</v>
       </c>
       <c r="D18" t="n">
-        <v>15.85</v>
+        <v>15.91</v>
       </c>
       <c r="E18" t="n">
-        <v>16.7</v>
+        <v>16.69</v>
       </c>
       <c r="F18" t="n">
-        <v>17.41</v>
+        <v>17.34</v>
       </c>
       <c r="G18" t="n">
         <v>16.38</v>
       </c>
       <c r="H18" t="n">
-        <v>16.21</v>
+        <v>16.22</v>
       </c>
       <c r="I18" t="n">
-        <v>14.59</v>
+        <v>14.74</v>
       </c>
       <c r="J18" t="n">
-        <v>17.01</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="19">
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.93</v>
+        <v>16.84</v>
       </c>
       <c r="C19" t="n">
-        <v>18.29</v>
+        <v>18.32</v>
       </c>
       <c r="D19" t="n">
-        <v>17.49</v>
+        <v>17.57</v>
       </c>
       <c r="E19" t="n">
         <v>18.29</v>
       </c>
       <c r="F19" t="n">
-        <v>18.31</v>
+        <v>18.27</v>
       </c>
       <c r="G19" t="n">
-        <v>17.74</v>
+        <v>17.76</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05</v>
+        <v>18.09</v>
       </c>
       <c r="I19" t="n">
-        <v>16.98</v>
+        <v>16.99</v>
       </c>
       <c r="J19" t="n">
-        <v>18.96</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="20">
@@ -1116,31 +1116,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.34</v>
+        <v>12.37</v>
       </c>
       <c r="C20" t="n">
-        <v>12.29</v>
+        <v>12.35</v>
       </c>
       <c r="D20" t="n">
-        <v>12.35</v>
+        <v>12.33</v>
       </c>
       <c r="E20" t="n">
         <v>12.95</v>
       </c>
       <c r="F20" t="n">
-        <v>12.73</v>
+        <v>12.77</v>
       </c>
       <c r="G20" t="n">
-        <v>13.45</v>
+        <v>13.34</v>
       </c>
       <c r="H20" t="n">
-        <v>12.34</v>
+        <v>12.39</v>
       </c>
       <c r="I20" t="n">
-        <v>10.27</v>
+        <v>10.28</v>
       </c>
       <c r="J20" t="n">
-        <v>13.1</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="21">
@@ -1150,31 +1150,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.34</v>
+        <v>14.14</v>
       </c>
       <c r="C21" t="n">
-        <v>14.24</v>
+        <v>14.3</v>
       </c>
       <c r="D21" t="n">
-        <v>14.74</v>
+        <v>14.73</v>
       </c>
       <c r="E21" t="n">
-        <v>15.4</v>
+        <v>15.36</v>
       </c>
       <c r="F21" t="n">
-        <v>15.53</v>
+        <v>15.61</v>
       </c>
       <c r="G21" t="n">
-        <v>14.61</v>
+        <v>14.71</v>
       </c>
       <c r="H21" t="n">
-        <v>14.94</v>
+        <v>14.89</v>
       </c>
       <c r="I21" t="n">
-        <v>13.27</v>
+        <v>13.43</v>
       </c>
       <c r="J21" t="n">
-        <v>15.57</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="22">
@@ -1184,31 +1184,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.64</v>
+        <v>11.63</v>
       </c>
       <c r="C22" t="n">
-        <v>12.31</v>
+        <v>12.32</v>
       </c>
       <c r="D22" t="n">
         <v>11.6</v>
       </c>
       <c r="E22" t="n">
-        <v>12.23</v>
+        <v>12.22</v>
       </c>
       <c r="F22" t="n">
-        <v>12.45</v>
+        <v>12.51</v>
       </c>
       <c r="G22" t="n">
-        <v>13.47</v>
+        <v>13.4</v>
       </c>
       <c r="H22" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="I22" t="n">
-        <v>10.21</v>
+        <v>10.15</v>
       </c>
       <c r="J22" t="n">
-        <v>12.69</v>
+        <v>12.73</v>
       </c>
     </row>
   </sheetData>

--- a/temporary_file.xlsx
+++ b/temporary_file.xlsx
@@ -504,31 +504,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.91</v>
+        <v>13.97</v>
       </c>
       <c r="C2" t="n">
-        <v>14.48</v>
+        <v>14.52</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9</v>
+        <v>14.97</v>
       </c>
       <c r="E2" t="n">
-        <v>15.96</v>
+        <v>15.97</v>
       </c>
       <c r="F2" t="n">
-        <v>15.39</v>
+        <v>15.44</v>
       </c>
       <c r="G2" t="n">
-        <v>15.24</v>
+        <v>15.25</v>
       </c>
       <c r="H2" t="n">
-        <v>14.04</v>
+        <v>13.79</v>
       </c>
       <c r="I2" t="n">
-        <v>13.06</v>
+        <v>13.18</v>
       </c>
       <c r="J2" t="n">
-        <v>15.51</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="3">
@@ -538,31 +538,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.28</v>
+        <v>12.29</v>
       </c>
       <c r="C3" t="n">
-        <v>13.77</v>
+        <v>13.76</v>
       </c>
       <c r="D3" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="E3" t="n">
-        <v>12.39</v>
+        <v>12.37</v>
       </c>
       <c r="F3" t="n">
-        <v>12.64</v>
+        <v>12.69</v>
       </c>
       <c r="G3" t="n">
-        <v>11.85</v>
+        <v>11.92</v>
       </c>
       <c r="H3" t="n">
-        <v>13.98</v>
+        <v>13.97</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93</v>
+        <v>9.9</v>
       </c>
       <c r="J3" t="n">
-        <v>13.39</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="4">
@@ -572,31 +572,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.02</v>
+        <v>15.95</v>
       </c>
       <c r="C4" t="n">
-        <v>16.07</v>
+        <v>15.97</v>
       </c>
       <c r="D4" t="n">
-        <v>16.19</v>
+        <v>16.17</v>
       </c>
       <c r="E4" t="n">
         <v>17.59</v>
       </c>
       <c r="F4" t="n">
-        <v>17.04</v>
+        <v>17.07</v>
       </c>
       <c r="G4" t="n">
-        <v>16.52</v>
+        <v>16.51</v>
       </c>
       <c r="H4" t="n">
-        <v>17.01</v>
+        <v>17.13</v>
       </c>
       <c r="I4" t="n">
-        <v>13.72</v>
+        <v>13.65</v>
       </c>
       <c r="J4" t="n">
-        <v>17.25</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="5">
@@ -606,31 +606,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.84</v>
+        <v>11.86</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6</v>
+        <v>12.65</v>
       </c>
       <c r="D5" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="E5" t="n">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
       <c r="F5" t="n">
-        <v>12.43</v>
+        <v>12.46</v>
       </c>
       <c r="G5" t="n">
-        <v>12.81</v>
+        <v>12.82</v>
       </c>
       <c r="H5" t="n">
-        <v>12.76</v>
+        <v>12.84</v>
       </c>
       <c r="I5" t="n">
-        <v>9.720000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="6">
@@ -640,31 +640,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.98</v>
+        <v>13.93</v>
       </c>
       <c r="C6" t="n">
-        <v>14.62</v>
+        <v>14.59</v>
       </c>
       <c r="D6" t="n">
-        <v>13.55</v>
+        <v>13.56</v>
       </c>
       <c r="E6" t="n">
-        <v>14.49</v>
+        <v>14.48</v>
       </c>
       <c r="F6" t="n">
-        <v>14.41</v>
+        <v>14.38</v>
       </c>
       <c r="G6" t="n">
         <v>14.14</v>
       </c>
       <c r="H6" t="n">
-        <v>14.17</v>
+        <v>14.29</v>
       </c>
       <c r="I6" t="n">
-        <v>12.62</v>
+        <v>12.72</v>
       </c>
       <c r="J6" t="n">
-        <v>14.32</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="7">
@@ -674,31 +674,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.1</v>
+        <v>12.09</v>
       </c>
       <c r="C7" t="n">
-        <v>13.03</v>
+        <v>12.95</v>
       </c>
       <c r="D7" t="n">
-        <v>12.59</v>
+        <v>12.63</v>
       </c>
       <c r="E7" t="n">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="F7" t="n">
-        <v>13.05</v>
+        <v>13.04</v>
       </c>
       <c r="G7" t="n">
         <v>13.63</v>
       </c>
       <c r="H7" t="n">
-        <v>12.42</v>
+        <v>12.51</v>
       </c>
       <c r="I7" t="n">
-        <v>10.34</v>
+        <v>10.36</v>
       </c>
       <c r="J7" t="n">
-        <v>13.27</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="8">
@@ -708,31 +708,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.45</v>
+        <v>16.5</v>
       </c>
       <c r="C8" t="n">
-        <v>15.05</v>
+        <v>14.95</v>
       </c>
       <c r="D8" t="n">
-        <v>17.4</v>
+        <v>17.37</v>
       </c>
       <c r="E8" t="n">
-        <v>16.73</v>
+        <v>16.75</v>
       </c>
       <c r="F8" t="n">
-        <v>17.91</v>
+        <v>17.94</v>
       </c>
       <c r="G8" t="n">
-        <v>16.08</v>
+        <v>16.06</v>
       </c>
       <c r="H8" t="n">
-        <v>16.73</v>
+        <v>16.79</v>
       </c>
       <c r="I8" t="n">
-        <v>15.07</v>
+        <v>15.12</v>
       </c>
       <c r="J8" t="n">
-        <v>15.97</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="9">
@@ -742,31 +742,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10.23</v>
+        <v>10.25</v>
       </c>
       <c r="D9" t="n">
-        <v>8.630000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="E9" t="n">
-        <v>10.08</v>
+        <v>10.07</v>
       </c>
       <c r="F9" t="n">
-        <v>9.27</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>10.1</v>
+        <v>10.07</v>
       </c>
       <c r="H9" t="n">
-        <v>9.33</v>
+        <v>9.35</v>
       </c>
       <c r="I9" t="n">
-        <v>8.460000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="J9" t="n">
-        <v>10.65</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="10">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.55</v>
+        <v>16.69</v>
       </c>
       <c r="C10" t="n">
-        <v>17.37</v>
+        <v>17.2</v>
       </c>
       <c r="D10" t="n">
-        <v>17.45</v>
+        <v>17.38</v>
       </c>
       <c r="E10" t="n">
         <v>18.4</v>
       </c>
       <c r="F10" t="n">
-        <v>18.32</v>
+        <v>18.33</v>
       </c>
       <c r="G10" t="n">
-        <v>17.78</v>
+        <v>17.74</v>
       </c>
       <c r="H10" t="n">
-        <v>18.33</v>
+        <v>18.56</v>
       </c>
       <c r="I10" t="n">
-        <v>15.6</v>
+        <v>15.56</v>
       </c>
       <c r="J10" t="n">
-        <v>18.93</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="11">
@@ -813,25 +813,25 @@
         <v>15.77</v>
       </c>
       <c r="C11" t="n">
-        <v>16.43</v>
+        <v>16.27</v>
       </c>
       <c r="D11" t="n">
-        <v>16.25</v>
+        <v>16.22</v>
       </c>
       <c r="E11" t="n">
-        <v>16.58</v>
+        <v>16.61</v>
       </c>
       <c r="F11" t="n">
-        <v>15.99</v>
+        <v>15.89</v>
       </c>
       <c r="G11" t="n">
-        <v>15.89</v>
+        <v>15.9</v>
       </c>
       <c r="H11" t="n">
-        <v>15.58</v>
+        <v>15.67</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66</v>
+        <v>13.63</v>
       </c>
       <c r="J11" t="n">
         <v>16.22</v>
@@ -844,31 +844,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.76</v>
+        <v>11.78</v>
       </c>
       <c r="C12" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="D12" t="n">
         <v>12.38</v>
       </c>
       <c r="E12" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="F12" t="n">
-        <v>12.67</v>
+        <v>12.68</v>
       </c>
       <c r="G12" t="n">
         <v>13.77</v>
       </c>
       <c r="H12" t="n">
-        <v>12.38</v>
+        <v>12.41</v>
       </c>
       <c r="I12" t="n">
-        <v>10.35</v>
+        <v>10.34</v>
       </c>
       <c r="J12" t="n">
-        <v>13.4</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="13">
@@ -878,31 +878,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.45</v>
+        <v>11.5</v>
       </c>
       <c r="C13" t="n">
-        <v>10.96</v>
+        <v>10.98</v>
       </c>
       <c r="D13" t="n">
-        <v>11.82</v>
+        <v>11.8</v>
       </c>
       <c r="E13" t="n">
-        <v>11.74</v>
+        <v>11.73</v>
       </c>
       <c r="F13" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="G13" t="n">
-        <v>11.31</v>
+        <v>11.3</v>
       </c>
       <c r="H13" t="n">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="I13" t="n">
-        <v>10.32</v>
+        <v>10.3</v>
       </c>
       <c r="J13" t="n">
-        <v>12.33</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="14">
@@ -915,28 +915,28 @@
         <v>14.97</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5</v>
+        <v>14.48</v>
       </c>
       <c r="D14" t="n">
-        <v>14.92</v>
+        <v>14.94</v>
       </c>
       <c r="E14" t="n">
-        <v>15.93</v>
+        <v>15.96</v>
       </c>
       <c r="F14" t="n">
-        <v>15.94</v>
+        <v>15.92</v>
       </c>
       <c r="G14" t="n">
-        <v>14.81</v>
+        <v>14.8</v>
       </c>
       <c r="H14" t="n">
-        <v>15.16</v>
+        <v>15.3</v>
       </c>
       <c r="I14" t="n">
-        <v>13.82</v>
+        <v>13.86</v>
       </c>
       <c r="J14" t="n">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="15">
@@ -946,31 +946,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.26</v>
+        <v>11.32</v>
       </c>
       <c r="C15" t="n">
-        <v>12.08</v>
+        <v>12.09</v>
       </c>
       <c r="D15" t="n">
-        <v>11.86</v>
+        <v>11.83</v>
       </c>
       <c r="E15" t="n">
-        <v>11.73</v>
+        <v>11.72</v>
       </c>
       <c r="F15" t="n">
-        <v>12.41</v>
+        <v>12.38</v>
       </c>
       <c r="G15" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="H15" t="n">
-        <v>11.46</v>
+        <v>11.51</v>
       </c>
       <c r="I15" t="n">
-        <v>10.03</v>
+        <v>10.01</v>
       </c>
       <c r="J15" t="n">
-        <v>12.36</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="16">
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.81</v>
+        <v>15.83</v>
       </c>
       <c r="C16" t="n">
-        <v>14.45</v>
+        <v>14.5</v>
       </c>
       <c r="D16" t="n">
-        <v>16.62</v>
+        <v>16.61</v>
       </c>
       <c r="E16" t="n">
-        <v>16.6</v>
+        <v>16.63</v>
       </c>
       <c r="F16" t="n">
-        <v>17.24</v>
+        <v>17.23</v>
       </c>
       <c r="G16" t="n">
-        <v>15.72</v>
+        <v>15.74</v>
       </c>
       <c r="H16" t="n">
-        <v>15.54</v>
+        <v>15.78</v>
       </c>
       <c r="I16" t="n">
-        <v>14.59</v>
+        <v>14.52</v>
       </c>
       <c r="J16" t="n">
-        <v>16</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="17">
@@ -1014,31 +1014,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.04</v>
+        <v>11.1</v>
       </c>
       <c r="C17" t="n">
-        <v>13.72</v>
+        <v>13.68</v>
       </c>
       <c r="D17" t="n">
-        <v>11.41</v>
+        <v>11.4</v>
       </c>
       <c r="E17" t="n">
-        <v>10.81</v>
+        <v>10.78</v>
       </c>
       <c r="F17" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.17</v>
       </c>
-      <c r="G17" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12.14</v>
-      </c>
       <c r="I17" t="n">
-        <v>10.87</v>
+        <v>10.82</v>
       </c>
       <c r="J17" t="n">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="18">
@@ -1048,28 +1048,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.67</v>
+        <v>15.64</v>
       </c>
       <c r="C18" t="n">
-        <v>16.22</v>
+        <v>16.11</v>
       </c>
       <c r="D18" t="n">
-        <v>15.91</v>
+        <v>15.88</v>
       </c>
       <c r="E18" t="n">
-        <v>16.69</v>
+        <v>16.72</v>
       </c>
       <c r="F18" t="n">
-        <v>17.34</v>
+        <v>17.29</v>
       </c>
       <c r="G18" t="n">
-        <v>16.38</v>
+        <v>16.34</v>
       </c>
       <c r="H18" t="n">
-        <v>16.22</v>
+        <v>16.34</v>
       </c>
       <c r="I18" t="n">
-        <v>14.74</v>
+        <v>14.73</v>
       </c>
       <c r="J18" t="n">
         <v>16.93</v>
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.84</v>
+        <v>16.97</v>
       </c>
       <c r="C19" t="n">
-        <v>18.32</v>
+        <v>18.14</v>
       </c>
       <c r="D19" t="n">
-        <v>17.57</v>
+        <v>17.51</v>
       </c>
       <c r="E19" t="n">
         <v>18.29</v>
       </c>
       <c r="F19" t="n">
-        <v>18.27</v>
+        <v>18.28</v>
       </c>
       <c r="G19" t="n">
-        <v>17.76</v>
+        <v>17.73</v>
       </c>
       <c r="H19" t="n">
-        <v>18.09</v>
+        <v>18.3</v>
       </c>
       <c r="I19" t="n">
-        <v>16.99</v>
+        <v>17.04</v>
       </c>
       <c r="J19" t="n">
-        <v>18.93</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="20">
@@ -1116,31 +1116,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.37</v>
+        <v>12.35</v>
       </c>
       <c r="C20" t="n">
-        <v>12.35</v>
+        <v>12.26</v>
       </c>
       <c r="D20" t="n">
         <v>12.33</v>
       </c>
       <c r="E20" t="n">
-        <v>12.95</v>
+        <v>12.96</v>
       </c>
       <c r="F20" t="n">
-        <v>12.77</v>
+        <v>12.78</v>
       </c>
       <c r="G20" t="n">
-        <v>13.34</v>
+        <v>13.35</v>
       </c>
       <c r="H20" t="n">
-        <v>12.39</v>
+        <v>12.38</v>
       </c>
       <c r="I20" t="n">
-        <v>10.28</v>
+        <v>10.32</v>
       </c>
       <c r="J20" t="n">
-        <v>13.11</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="21">
@@ -1150,31 +1150,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.14</v>
+        <v>14.32</v>
       </c>
       <c r="C21" t="n">
-        <v>14.3</v>
+        <v>14.28</v>
       </c>
       <c r="D21" t="n">
-        <v>14.73</v>
+        <v>14.76</v>
       </c>
       <c r="E21" t="n">
-        <v>15.36</v>
+        <v>15.42</v>
       </c>
       <c r="F21" t="n">
-        <v>15.61</v>
+        <v>15.57</v>
       </c>
       <c r="G21" t="n">
-        <v>14.71</v>
+        <v>14.74</v>
       </c>
       <c r="H21" t="n">
-        <v>14.89</v>
+        <v>14.84</v>
       </c>
       <c r="I21" t="n">
-        <v>13.43</v>
+        <v>13.47</v>
       </c>
       <c r="J21" t="n">
-        <v>15.49</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="22">
@@ -1184,28 +1184,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.63</v>
+        <v>11.64</v>
       </c>
       <c r="C22" t="n">
-        <v>12.32</v>
+        <v>12.34</v>
       </c>
       <c r="D22" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="E22" t="n">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
       <c r="F22" t="n">
         <v>12.51</v>
       </c>
       <c r="G22" t="n">
-        <v>13.4</v>
+        <v>13.38</v>
       </c>
       <c r="H22" t="n">
-        <v>12.6</v>
+        <v>12.66</v>
       </c>
       <c r="I22" t="n">
-        <v>10.15</v>
+        <v>10.14</v>
       </c>
       <c r="J22" t="n">
         <v>12.73</v>
